--- a/data/model_params_NWSL.xlsx
+++ b/data/model_params_NWSL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.4053728928662224</v>
+        <v>0.1089559434280109</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.0157803203634242</v>
+        <v>-0.0179798733778174</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1760153688776891</v>
+        <v>-0.1757637317637759</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07811375422754824</v>
+        <v>0.0710079908073632</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3823415109621502</v>
+        <v>-0.380935120180237</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1495963433799182</v>
+        <v>0.1458385850570895</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1890966548833017</v>
+        <v>0.194368300192797</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.00178462105755602</v>
+        <v>-0.001626525494170596</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.7356980388808252</v>
+        <v>-0.744767904920193</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1744054577589123</v>
+        <v>-0.6697511584247826</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.152430709389198</v>
+        <v>-0.6476415368041971</v>
       </c>
     </row>
     <row r="13">
@@ -562,17 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8081034111671712</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>shot_during_regular_play</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.6203682037803395</v>
+        <v>0.3112709005875231</v>
       </c>
     </row>
   </sheetData>
